--- a/泡泡数据配置.xlsx
+++ b/泡泡数据配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="457" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="457"/>
   </bookViews>
   <sheets>
     <sheet name="舞台飞行物配置" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -501,20 +501,7 @@
     <t>wukong</t>
   </si>
   <si>
-    <t>chengzi1</t>
-  </si>
-  <si>
-    <t>li1</t>
-  </si>
-  <si>
     <t>pingguo1</t>
-  </si>
-  <si>
-    <t>xiangjiao1</t>
-  </si>
-  <si>
-    <t>11,22,33,444</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>theme_id</t>
@@ -632,13 +619,76 @@
   </si>
   <si>
     <t>路径类型</t>
+  </si>
+  <si>
+    <t>honghaier</t>
+  </si>
+  <si>
+    <t>bajie</t>
+  </si>
+  <si>
+    <t>guaiwu01</t>
+  </si>
+  <si>
+    <t>guaiwu02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guaiwu03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111,222,44</t>
+  </si>
+  <si>
+    <t>11,22,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>11,22,33,44</t>
+  </si>
+  <si>
+    <t>11,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44,2</t>
+  </si>
+  <si>
+    <t>mihoutao</t>
+  </si>
+  <si>
+    <t>lanmei</t>
+  </si>
+  <si>
+    <t>xigua</t>
+  </si>
+  <si>
+    <t>putao</t>
+  </si>
+  <si>
+    <t>taozi</t>
+  </si>
+  <si>
+    <t>xuelianguo</t>
+  </si>
+  <si>
+    <t>特殊子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,6 +775,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -756,10 +874,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -787,8 +905,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>733425</xdr:rowOff>
     </xdr:to>
@@ -800,10 +918,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -831,8 +949,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>733425</xdr:rowOff>
     </xdr:to>
@@ -844,10 +962,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -871,27 +989,27 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -901,8 +1019,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8334375" y="3305175"/>
+          <a:off x="8334375" y="7296150"/>
           <a:ext cx="695325" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>676275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="honghaier.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="3486150"/>
+          <a:ext cx="838200" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="bajie.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="4171950"/>
+          <a:ext cx="800100" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -919,34 +1113,28 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>733425</xdr:rowOff>
+      <xdr:rowOff>685800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="13" name="图片 12" descr="guaiwu01.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8334375" y="4562475"/>
-          <a:ext cx="695325" cy="733425"/>
+          <a:off x="8334375" y="5029200"/>
+          <a:ext cx="885825" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -958,39 +1146,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>733425</xdr:rowOff>
+      <xdr:rowOff>714375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="14" name="图片 13" descr="guaiwu02.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8334375" y="5314950"/>
-          <a:ext cx="695325" cy="733425"/>
+          <a:off x="8372475" y="5857875"/>
+          <a:ext cx="695325" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1002,83 +1184,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>733425</xdr:rowOff>
+      <xdr:rowOff>1000125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="15" name="图片 14" descr="guaiwu03.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8334375" y="6086475"/>
-          <a:ext cx="695325" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8343900" y="4105275"/>
-          <a:ext cx="695325" cy="733425"/>
+          <a:off x="8353425" y="6772275"/>
+          <a:ext cx="828675" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,10 +1245,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1157,10 +1289,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1201,10 +1333,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1245,10 +1377,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1268,18 +1400,246 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="mihoutao1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="4171950"/>
+          <a:ext cx="523875" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="lanmei1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="5019675"/>
+          <a:ext cx="571500" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="xigua2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="5867400"/>
+          <a:ext cx="600075" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>638175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="putao1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="6553200"/>
+          <a:ext cx="657225" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="taozi1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229475" y="7277100"/>
+          <a:ext cx="552450" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="xuelianguo1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="7991475"/>
+          <a:ext cx="419100" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1346,7 +1706,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1381,7 +1740,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1557,21 +1915,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="15.625" style="3" customWidth="1"/>
     <col min="4" max="7" width="15.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="17.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1611,13 +1971,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="81.75" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1627,8 +1987,8 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1">
-        <v>111</v>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E3" s="1">
         <v>50</v>
@@ -1640,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="99" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1650,8 +2010,8 @@
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
-        <v>222</v>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
@@ -1663,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="66.75" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1674,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1">
         <v>200</v>
@@ -1686,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="57.75" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1694,22 +2054,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="63.75" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1717,22 +2077,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="59.25" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1740,22 +2100,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60.75" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1763,22 +2123,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="81" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1786,19 +2146,45 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="76.5" customHeight="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1811,71 +2197,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="15.625" style="3" customWidth="1"/>
     <col min="5" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="67.5" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -1884,7 +2271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="69.75" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1895,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
@@ -1904,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="73.5" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1915,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -1924,7 +2311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="78" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1935,13 +2322,133 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="59.25" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="78" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63" customHeight="1">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51" customHeight="1">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="63" customHeight="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1953,20 +2460,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="15.625" style="3" customWidth="1"/>
     <col min="4" max="7" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1974,45 +2481,45 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2023,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2034,7 +2541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2045,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2056,7 +2563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2076,14 +2583,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
@@ -2093,47 +2600,47 @@
     <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6">
       <c r="B3" s="1">
         <v>1</v>
       </c>
